--- a/medicine/Enfance/Victor_Svarc/Victor_Svarc.xlsx
+++ b/medicine/Enfance/Victor_Svarc/Victor_Svarc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Svarc (alias Souvard), dit Toto, est un juif français, d'origine polonaise, Résistant,  le bras droit de Georges Garel, membre du Réseau Garel, responsable de la Région Centre-Est, basé à Lyon de l'Œuvre de secours aux enfants (OSE). Il est un cousin de Charles Lederman.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Victor Svarc est un juif français d'origine polonaise. On le décrit ainsi : Victor Svarc dit Toto est le bras droit de Georges Garel, il est le cousin germain de Charles Lederman[1], donc d'origine polonaise. On ne connaît peu de choses de lui: c'est un homme discret mais très courageux, dont la mission principale était de transporter les fonds nécessaires à l'organisation[2].
-Sous le nom de Souvard, il dirige la région Centre-Est de l'Œuvre de secours aux enfants (OSE), basé à Lyon[3] ,[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victor Svarc est un juif français d'origine polonaise. On le décrit ainsi : Victor Svarc dit Toto est le bras droit de Georges Garel, il est le cousin germain de Charles Lederman, donc d'origine polonaise. On ne connaît peu de choses de lui: c'est un homme discret mais très courageux, dont la mission principale était de transporter les fonds nécessaires à l'organisation.
+Sous le nom de Souvard, il dirige la région Centre-Est de l'Œuvre de secours aux enfants (OSE), basé à Lyon ,.
 </t>
         </is>
       </c>
